--- a/SBCT11 BOM.xlsx
+++ b/SBCT11 BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jim\Documents\Projects\SBCT11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA82B5EE-3131-49E6-9FAE-3A12C371612D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4088DB3B-4B4F-47E8-9654-D4141E9F1557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1830" yWindow="1242" windowWidth="18000" windowHeight="10998" xr2:uid="{273CBA18-C915-4A0D-9100-CB8103C374A0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="342">
   <si>
     <t>U1</t>
   </si>
@@ -678,9 +678,6 @@
     <t>732-5316-ND</t>
   </si>
   <si>
-    <t>732-5314-ND</t>
-  </si>
-  <si>
     <t>T1 GREEN</t>
   </si>
   <si>
@@ -852,9 +849,6 @@
     <t>TOGGLE SWITCH SPDT THROUGH HOLE, RIGHT ANGLE</t>
   </si>
   <si>
-    <t>CONNECTOR HEADER THROUGH HOLE 1 POSITION</t>
-  </si>
-  <si>
     <t>IC RTC CLK/CALENDAR PAR 24-EDIP</t>
   </si>
   <si>
@@ -939,24 +933,6 @@
     <t>CAPACITOR CER 10000PF 50V X7R RADIAL</t>
   </si>
   <si>
-    <t>SW4</t>
-  </si>
-  <si>
-    <t>SW5</t>
-  </si>
-  <si>
-    <t>4-POS DIP</t>
-  </si>
-  <si>
-    <t>JS0104AP4-S-ND</t>
-  </si>
-  <si>
-    <t>JS0104AP4-S</t>
-  </si>
-  <si>
-    <t>DIP SWITCH SPST 4 POSITION THROUGH HOLE SLIDE</t>
-  </si>
-  <si>
     <t>SOCKET--U1</t>
   </si>
   <si>
@@ -1051,6 +1027,39 @@
   </si>
   <si>
     <t>LED RED DIFFUSED T-1 THROUGH HOLE</t>
+  </si>
+  <si>
+    <t>36-5000-ND</t>
+  </si>
+  <si>
+    <t>PC TEST POINT MINIATURE RED</t>
+  </si>
+  <si>
+    <t>36-5001-ND</t>
+  </si>
+  <si>
+    <t>PC TEST POINT MINIATURE BLACK</t>
+  </si>
+  <si>
+    <t>36-5004-ND</t>
+  </si>
+  <si>
+    <t>PC TEST POINT MINIATURE YELLOW</t>
+  </si>
+  <si>
+    <t>SW4/SW5</t>
+  </si>
+  <si>
+    <t>8-POS DIP</t>
+  </si>
+  <si>
+    <t>CT2088-ND</t>
+  </si>
+  <si>
+    <t>208-8</t>
+  </si>
+  <si>
+    <t>DIP SWITCH SPST 8 POSITION THROUGH HOLE SLIDE</t>
   </si>
 </sst>
 </file>
@@ -1415,11 +1424,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939C994B-3654-426F-8C44-34DFE29441B0}">
-  <dimension ref="A1:E153"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1433,14 +1442,14 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>157</v>
@@ -1488,7 +1497,7 @@
         <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1505,7 +1514,7 @@
         <v>148</v>
       </c>
       <c r="E5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1522,7 +1531,7 @@
         <v>156</v>
       </c>
       <c r="E6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1533,13 +1542,13 @@
         <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="E7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1556,7 +1565,7 @@
         <v>183</v>
       </c>
       <c r="E8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1573,7 +1582,7 @@
         <v>183</v>
       </c>
       <c r="E9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1590,7 +1599,7 @@
         <v>185</v>
       </c>
       <c r="E10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1607,7 +1616,7 @@
         <v>185</v>
       </c>
       <c r="E11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1624,7 +1633,7 @@
         <v>156</v>
       </c>
       <c r="E12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1663,7 +1672,7 @@
         <v>156</v>
       </c>
       <c r="E15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1680,7 +1689,7 @@
         <v>156</v>
       </c>
       <c r="E16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1691,13 +1700,13 @@
         <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1714,7 +1723,7 @@
         <v>152</v>
       </c>
       <c r="E18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1731,7 +1740,7 @@
         <v>152</v>
       </c>
       <c r="E19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1748,7 +1757,7 @@
         <v>150</v>
       </c>
       <c r="E20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1782,7 +1791,7 @@
         <v>159</v>
       </c>
       <c r="E22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1810,7 +1819,7 @@
         <v>168</v>
       </c>
       <c r="E24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1827,7 +1836,7 @@
         <v>154</v>
       </c>
       <c r="E25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1844,7 +1853,7 @@
         <v>154</v>
       </c>
       <c r="E26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1861,7 +1870,7 @@
         <v>190</v>
       </c>
       <c r="E27" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1878,7 +1887,7 @@
         <v>156</v>
       </c>
       <c r="E28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1895,7 +1904,7 @@
         <v>156</v>
       </c>
       <c r="E29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1912,7 +1921,7 @@
         <v>156</v>
       </c>
       <c r="E30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1929,12 +1938,12 @@
         <v>192</v>
       </c>
       <c r="E31" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1951,7 +1960,7 @@
         <v>201</v>
       </c>
       <c r="E33" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1968,7 +1977,7 @@
         <v>201</v>
       </c>
       <c r="E34" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1985,7 +1994,7 @@
         <v>205</v>
       </c>
       <c r="E35" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2002,7 +2011,7 @@
         <v>205</v>
       </c>
       <c r="E36" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2019,7 +2028,7 @@
         <v>205</v>
       </c>
       <c r="E37" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2036,7 +2045,7 @@
         <v>205</v>
       </c>
       <c r="E38" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2053,7 +2062,7 @@
         <v>207</v>
       </c>
       <c r="E39" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2064,13 +2073,13 @@
         <v>77</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="E40" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2081,13 +2090,13 @@
         <v>77</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="E41" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2095,16 +2104,16 @@
         <v>85</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E42" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2112,16 +2121,16 @@
         <v>86</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E43" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2129,16 +2138,16 @@
         <v>87</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E44" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2146,16 +2155,16 @@
         <v>88</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E45" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2163,16 +2172,16 @@
         <v>89</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E46" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2180,16 +2189,16 @@
         <v>90</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E47" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2197,16 +2206,16 @@
         <v>91</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E48" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2214,16 +2223,16 @@
         <v>92</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E49" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2231,16 +2240,16 @@
         <v>93</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E50" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2248,16 +2257,16 @@
         <v>94</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E51" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2265,16 +2274,16 @@
         <v>95</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E52" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2282,16 +2291,16 @@
         <v>96</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E53" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2299,16 +2308,16 @@
         <v>97</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E54" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2316,16 +2325,16 @@
         <v>98</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E55" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2333,16 +2342,16 @@
         <v>99</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E56" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2350,16 +2359,16 @@
         <v>100</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E57" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2367,16 +2376,16 @@
         <v>100</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E58" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2384,16 +2393,16 @@
         <v>101</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E59" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2401,16 +2410,16 @@
         <v>102</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E60" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2418,16 +2427,16 @@
         <v>103</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E61" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2435,16 +2444,16 @@
         <v>104</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E62" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2452,16 +2461,16 @@
         <v>105</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E63" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2469,16 +2478,16 @@
         <v>106</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E64" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2486,16 +2495,16 @@
         <v>107</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E65" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2503,16 +2512,16 @@
         <v>108</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E66" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2520,16 +2529,16 @@
         <v>109</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E67" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2537,16 +2546,16 @@
         <v>110</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E68" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2554,21 +2563,21 @@
         <v>111</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E69" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2590,7 +2599,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2601,40 +2610,40 @@
         <v>83</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="E73" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E74" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
+        <v>246</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="C75" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E75" t="s">
         <v>287</v>
-      </c>
-      <c r="E75" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E76" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2645,13 +2654,13 @@
         <v>124</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E77" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2662,13 +2671,13 @@
         <v>124</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E78" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2679,13 +2688,13 @@
         <v>125</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E79" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2696,13 +2705,13 @@
         <v>166</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D80" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E80" t="s">
         <v>282</v>
-      </c>
-      <c r="E80" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2713,13 +2722,13 @@
         <v>130</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="E81" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2730,13 +2739,13 @@
         <v>128</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="E82" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2750,10 +2759,10 @@
         <v>1718561002</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E83" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2764,23 +2773,23 @@
         <v>129</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E84" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E85" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>127</v>
@@ -2792,7 +2801,7 @@
         <v>212</v>
       </c>
       <c r="E86" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2809,7 +2818,7 @@
         <v>212</v>
       </c>
       <c r="E87" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2826,7 +2835,7 @@
         <v>212</v>
       </c>
       <c r="E88" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2843,7 +2852,7 @@
         <v>213</v>
       </c>
       <c r="E89" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2860,7 +2869,7 @@
         <v>213</v>
       </c>
       <c r="E90" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2877,12 +2886,12 @@
         <v>213</v>
       </c>
       <c r="E91" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E92" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2890,16 +2899,16 @@
         <v>208</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E93" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2907,16 +2916,16 @@
         <v>209</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="E94" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2924,16 +2933,16 @@
         <v>210</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="E95" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2941,21 +2950,21 @@
         <v>211</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C96" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="E96" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2972,7 +2981,7 @@
         <v>178</v>
       </c>
       <c r="E98" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2989,7 +2998,7 @@
         <v>170</v>
       </c>
       <c r="E99" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3006,7 +3015,7 @@
         <v>172</v>
       </c>
       <c r="E100" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3023,7 +3032,7 @@
         <v>174</v>
       </c>
       <c r="E101" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3040,7 +3049,7 @@
         <v>174</v>
       </c>
       <c r="E102" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3057,7 +3066,7 @@
         <v>143</v>
       </c>
       <c r="E103" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3074,7 +3083,7 @@
         <v>174</v>
       </c>
       <c r="E104" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3091,7 +3100,7 @@
         <v>174</v>
       </c>
       <c r="E105" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3108,7 +3117,7 @@
         <v>144</v>
       </c>
       <c r="E106" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3125,7 +3134,7 @@
         <v>143</v>
       </c>
       <c r="E107" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3142,7 +3151,7 @@
         <v>143</v>
       </c>
       <c r="E108" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3159,7 +3168,7 @@
         <v>176</v>
       </c>
       <c r="E109" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3176,17 +3185,17 @@
         <v>144</v>
       </c>
       <c r="E110" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E111" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B112" s="1">
         <v>40</v>
@@ -3198,12 +3207,12 @@
         <v>161</v>
       </c>
       <c r="E112" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B113" s="1">
         <v>20</v>
@@ -3215,12 +3224,12 @@
         <v>163</v>
       </c>
       <c r="E113" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B114" s="1">
         <v>20</v>
@@ -3232,12 +3241,12 @@
         <v>163</v>
       </c>
       <c r="E114" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B115" s="1">
         <v>20</v>
@@ -3249,12 +3258,12 @@
         <v>163</v>
       </c>
       <c r="E115" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B116" s="1">
         <v>20</v>
@@ -3266,29 +3275,29 @@
         <v>163</v>
       </c>
       <c r="E116" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B117" s="1">
         <v>24</v>
       </c>
       <c r="C117" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="E117" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B118" s="1">
         <v>28</v>
@@ -3300,12 +3309,12 @@
         <v>165</v>
       </c>
       <c r="E118" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B119" s="1">
         <v>28</v>
@@ -3317,12 +3326,12 @@
         <v>165</v>
       </c>
       <c r="E119" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B120" s="1">
         <v>28</v>
@@ -3334,12 +3343,12 @@
         <v>165</v>
       </c>
       <c r="E120" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B121" s="1">
         <v>28</v>
@@ -3351,12 +3360,12 @@
         <v>165</v>
       </c>
       <c r="E121" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B122" s="1">
         <v>20</v>
@@ -3368,12 +3377,12 @@
         <v>163</v>
       </c>
       <c r="E122" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B123" s="1">
         <v>40</v>
@@ -3385,12 +3394,12 @@
         <v>161</v>
       </c>
       <c r="E123" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B124" s="1">
         <v>40</v>
@@ -3402,12 +3411,12 @@
         <v>161</v>
       </c>
       <c r="E124" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B125" s="1">
         <v>20</v>
@@ -3419,12 +3428,12 @@
         <v>163</v>
       </c>
       <c r="E125" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B126" s="1">
         <v>20</v>
@@ -3436,12 +3445,12 @@
         <v>163</v>
       </c>
       <c r="E126" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B127" s="1">
         <v>40</v>
@@ -3453,12 +3462,12 @@
         <v>161</v>
       </c>
       <c r="E127" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B128" s="1">
         <v>20</v>
@@ -3470,12 +3479,12 @@
         <v>163</v>
       </c>
       <c r="E128" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B129" s="1">
         <v>20</v>
@@ -3487,12 +3496,12 @@
         <v>163</v>
       </c>
       <c r="E129" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B130" s="1">
         <v>16</v>
@@ -3504,12 +3513,12 @@
         <v>199</v>
       </c>
       <c r="E130" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B131" s="1">
         <v>16</v>
@@ -3521,12 +3530,12 @@
         <v>199</v>
       </c>
       <c r="E131" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B132" s="1">
         <v>16</v>
@@ -3538,12 +3547,12 @@
         <v>199</v>
       </c>
       <c r="E132" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B133" s="1">
         <v>14</v>
@@ -3555,12 +3564,12 @@
         <v>197</v>
       </c>
       <c r="E133" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B134" s="1">
         <v>14</v>
@@ -3572,12 +3581,12 @@
         <v>197</v>
       </c>
       <c r="E134" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B135" s="1">
         <v>14</v>
@@ -3589,12 +3598,12 @@
         <v>197</v>
       </c>
       <c r="E135" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B136" s="1">
         <v>20</v>
@@ -3606,12 +3615,12 @@
         <v>163</v>
       </c>
       <c r="E136" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B137" s="1">
         <v>20</v>
@@ -3623,12 +3632,12 @@
         <v>163</v>
       </c>
       <c r="E137" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B138" s="1">
         <v>20</v>
@@ -3640,12 +3649,12 @@
         <v>163</v>
       </c>
       <c r="E138" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B139" s="1">
         <v>20</v>
@@ -3657,12 +3666,12 @@
         <v>163</v>
       </c>
       <c r="E139" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B140" s="1">
         <v>14</v>
@@ -3674,12 +3683,12 @@
         <v>197</v>
       </c>
       <c r="E140" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E141" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3690,13 +3699,13 @@
         <v>112</v>
       </c>
       <c r="C142" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="E142" t="s">
         <v>229</v>
-      </c>
-      <c r="E142" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3707,13 +3716,13 @@
         <v>112</v>
       </c>
       <c r="C143" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="E143" t="s">
         <v>229</v>
-      </c>
-      <c r="E143" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3730,135 +3739,118 @@
         <v>202</v>
       </c>
       <c r="E144" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="E145" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A146" t="s">
-        <v>302</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="E146" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" t="s">
+        <v>137</v>
+      </c>
+      <c r="C147" s="1">
+        <v>5004</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>335</v>
+      </c>
       <c r="E147" t="s">
-        <v>257</v>
+        <v>336</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C148" s="1">
-        <v>61300111121</v>
+        <v>5000</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>214</v>
+        <v>331</v>
       </c>
       <c r="E148" t="s">
-        <v>272</v>
+        <v>332</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C149" s="1">
-        <v>61300111121</v>
+        <v>5001</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>214</v>
+        <v>333</v>
       </c>
       <c r="E149" t="s">
-        <v>272</v>
+        <v>334</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C150" s="1">
-        <v>61300111121</v>
+        <v>5001</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>214</v>
+        <v>333</v>
       </c>
       <c r="E150" t="s">
-        <v>272</v>
+        <v>334</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C151" s="1">
-        <v>61300111121</v>
+        <v>5001</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>214</v>
+        <v>333</v>
       </c>
       <c r="E151" t="s">
-        <v>272</v>
+        <v>334</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C152" s="1">
-        <v>61300111121</v>
+        <v>5001</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>214</v>
+        <v>333</v>
       </c>
       <c r="E152" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A153" t="s">
-        <v>142</v>
-      </c>
-      <c r="C153" s="1">
-        <v>61300111121</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E153" t="s">
-        <v>272</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E165">
-    <sortCondition ref="A33:A165"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E164">
+    <sortCondition ref="A33:A164"/>
   </sortState>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
